--- a/medicine/Mort/Cimetière_municipal_de_Vladimir/Cimetière_municipal_de_Vladimir.xlsx
+++ b/medicine/Mort/Cimetière_municipal_de_Vladimir/Cimetière_municipal_de_Vladimir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_municipal_de_Vladimir</t>
+          <t>Cimetière_municipal_de_Vladimir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vieux cimetière municipal (Старое городское кладбище), ou cimetière du Prince-Vladimir (Князь-Владимирское кладбище), ou cimetière Saint-Vladimir, est le plus ancien des cimetières en activité de la ville de Vladimir en Russie ; il doit son nom à saint Vladimir et se trouve grande rue de Nijni Novgorod.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_municipal_de_Vladimir</t>
+          <t>Cimetière_municipal_de_Vladimir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a été ouvert après la grande épidémie de peste de 1774 à l'avant-poste de Nijni Novgorod. On y a construit en 1783 une église dédiée à saint Vladimir, la seule aujourd'hui de la ville de style classiciste et la seule de la ville qui n'ait pas été fermée entre 1939 et 1943.
 Les inhumations cessent à partir de 1966 et ont lieu au cimetière d'Oulybychevo qui est le plus grand de la ville et de l'oblast actuellement.
 On y érige en 1975 un monument commémoratif en l'honneur des soldats tombés pendant la Grande guerre patriotique (1941-1945) au combat ou des suites de leurs blessures dans les hôpitaux de Vladimir. Il est conçu par Piotr Dick, Viktor Dynnikov et les architectes Novikov et Rejep.
-Des prisonniers de la prison centrale de Vladimir y furent enterrés dans des fosses communes dont la plupart furent victimes de la répression stalinienne, comme le prince Piotr Dolgoroukov (mort en 1951) dont une petite plaque sur une pierre lui rend hommage depuis 2012[1], ainsi qu'aux victimes de la « répression politique ».
-Depuis décembre 2010, le cimetière du Prince-Vladimir est placé sous la protection de l'État[2] en tant que « site du patrimoine culturel ».
+Des prisonniers de la prison centrale de Vladimir y furent enterrés dans des fosses communes dont la plupart furent victimes de la répression stalinienne, comme le prince Piotr Dolgoroukov (mort en 1951) dont une petite plaque sur une pierre lui rend hommage depuis 2012, ainsi qu'aux victimes de la « répression politique ».
+Depuis décembre 2010, le cimetière du Prince-Vladimir est placé sous la protection de l'État en tant que « site du patrimoine culturel ».
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_municipal_de_Vladimir</t>
+          <t>Cimetière_municipal_de_Vladimir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bienheureux Clément Cheptitsky (1869-1951), archimandrite gréco-catholique, victime de la répression stalinienne (plaque mémorielle)
 Fiodor Chevtchouk (1918-1964), héros de l'Union soviétique
@@ -558,15 +574,15 @@
 Général Johan Laidoner (1884-1953), commandant en chef des forces armées d'Estonie
 Elikonida Mirskaïa, actrice
 Vakkh Mouravkine (1830-1901), marchand, citoyen d'honneur de Vladimir, bienfaiteur de la ville
-Garéguine Njdeh (1886-1955), révolutionnaire arménien, sa dépouille a été transférée ensuite en Arménie[3]
+Garéguine Njdeh (1886-1955), révolutionnaire arménien, sa dépouille a été transférée ensuite en Arménie
 Général Dmitri Pogodine (1907-1943), héros de l'Union soviétique
 Mgr Mečislovas Reinys (1884-1953), évêque catholique lithuanien, victime de la persécution des chrétiens en URSS
 Mikhaïl Soloviov (1901-1959), chanteur lyrique, soliste du théâtre Bolchoï
-Vladimir Sorokine (1897-1961), acteur de théâtre[4]
+Vladimir Sorokine (1897-1961), acteur de théâtre
 Alexandre Stoletov (1839-1896), physicien, professeur de l'Université de Moscou
 Général Dmitri Stoletov, général-major
 Général Nikolaï Stoletov (1831-1912), général d'infanterie, géographe, acteur du Grand Jeu
-Maria Vorochilova, mère du maréchal Vorochilov[5]</t>
+Maria Vorochilova, mère du maréchal Vorochilov</t>
         </is>
       </c>
     </row>
